--- a/data/trans_bre/P70D_R_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Edad-trans_bre.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.013343500784083</v>
+        <v>4.194278021853912</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.33883601368055</v>
+        <v>21.09244740980574</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8047922775112338</v>
+        <v>0.8047922775112327</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2981277389733657</v>
+        <v>0.2981277389733653</v>
       </c>
     </row>
     <row r="8">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.288997712454792</v>
+        <v>-2.173292614310936</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6018453566769449</v>
+        <v>-0.5687848268627664</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.676968370216315</v>
+        <v>3.676395469266148</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.988095150699229</v>
+        <v>3.059621011221318</v>
       </c>
     </row>
     <row r="10">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9679152220040128</v>
+        <v>0.9679152220040121</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.3461883594670405</v>
+        <v>0.3461883594670402</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.261289950627286</v>
+        <v>-1.686265542149362</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.3496840491201856</v>
+        <v>-0.4152759737969846</v>
       </c>
     </row>
     <row r="12">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.034998363043464</v>
+        <v>2.906497112025364</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.848028619365932</v>
+        <v>1.593021430262597</v>
       </c>
     </row>
     <row r="13">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.367898221166589</v>
+        <v>-1.423366007420115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2183930701881481</v>
+        <v>-0.2220257545070353</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.008712509693304</v>
+        <v>3.922508584032121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.134813645318668</v>
+        <v>1.109799942499809</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.389342991196935</v>
+        <v>1.389342991196937</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1622066481538486</v>
+        <v>0.1622066481538489</v>
       </c>
     </row>
     <row r="17">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.829930298687198</v>
+        <v>-3.042034761951576</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.2804104806288208</v>
+        <v>-0.2966135656032247</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.674969957369465</v>
+        <v>5.654402249518868</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.9007821373139056</v>
+        <v>0.9300541093216235</v>
       </c>
     </row>
     <row r="19">
@@ -783,7 +783,7 @@
         <v>1.59080912218476</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.3759488805694861</v>
+        <v>0.3759488805694859</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0617235638977443</v>
+        <v>0.1676950599585825</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.009697346080325126</v>
+        <v>0.0309174735824938</v>
       </c>
     </row>
     <row r="21">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.007190582776929</v>
+        <v>2.9867419167599</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8747313710127528</v>
+        <v>0.8117005470765232</v>
       </c>
     </row>
     <row r="22">
